--- a/data/2019_25_11 Thésaurus version pour osiris 2019 PL - English Traduction.xlsx
+++ b/data/2019_25_11 Thésaurus version pour osiris 2019 PL - English Traduction.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexi\Downloads\Extraction_InformationsPatients-20200702T221646Z-001\Extraction_InformationsPatients\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Debian\home\exalis\github\projet_aura_classification\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83284B8-C202-474F-A9B9-39BDD56E14E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A3B891-F4DE-4AF4-9BC3-97244AA0A086}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="720">
   <si>
     <t>DCD</t>
   </si>
@@ -2234,6 +2234,12 @@
   </si>
   <si>
     <t>English traduction</t>
+  </si>
+  <si>
+    <t>Généralisée</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -2493,10 +2499,16 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -2507,12 +2519,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3175,17 +3181,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C53:D53"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C53:D53"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
@@ -3197,10 +3203,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BA85"/>
+  <dimension ref="A1:BA85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3220,52 +3226,52 @@
         <v>264</v>
       </c>
       <c r="D1" s="27"/>
-      <c r="M1" s="50" t="s">
+      <c r="M1" s="46" t="s">
         <v>251</v>
       </c>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="50"/>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="50"/>
-      <c r="AK1" s="50"/>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="50"/>
-      <c r="AN1" s="50"/>
-      <c r="AO1" s="50"/>
-      <c r="AP1" s="50"/>
-      <c r="AQ1" s="50"/>
-      <c r="AR1" s="50"/>
-      <c r="AS1" s="50"/>
-      <c r="AT1" s="50"/>
-      <c r="AU1" s="50"/>
-      <c r="AV1" s="50"/>
-      <c r="AW1" s="50"/>
-      <c r="AX1" s="50"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="46"/>
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="46"/>
+      <c r="AK1" s="46"/>
+      <c r="AL1" s="46"/>
+      <c r="AM1" s="46"/>
+      <c r="AN1" s="46"/>
+      <c r="AO1" s="46"/>
+      <c r="AP1" s="46"/>
+      <c r="AQ1" s="46"/>
+      <c r="AR1" s="46"/>
+      <c r="AS1" s="46"/>
+      <c r="AT1" s="46"/>
+      <c r="AU1" s="46"/>
+      <c r="AV1" s="46"/>
+      <c r="AW1" s="46"/>
+      <c r="AX1" s="46"/>
     </row>
     <row r="2" spans="2:53" x14ac:dyDescent="0.35">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="47"/>
+      <c r="C2" s="49"/>
       <c r="D2" s="43" t="s">
         <v>717</v>
       </c>
@@ -3299,14 +3305,14 @@
       <c r="S2" s="29" t="s">
         <v>350</v>
       </c>
-      <c r="T2" s="46" t="s">
+      <c r="T2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
       <c r="Z2" t="s">
         <v>484</v>
       </c>
@@ -3353,12 +3359,12 @@
       <c r="AT2" s="29" t="s">
         <v>482</v>
       </c>
-      <c r="AU2" s="46" t="s">
+      <c r="AU2" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="AV2" s="46"/>
-      <c r="AW2" s="46"/>
-      <c r="AX2" s="46"/>
+      <c r="AV2" s="45"/>
+      <c r="AW2" s="45"/>
+      <c r="AX2" s="45"/>
       <c r="AY2" s="39" t="s">
         <v>484</v>
       </c>
@@ -3411,22 +3417,22 @@
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
-      <c r="T4" s="45" t="s">
+      <c r="T4" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="45"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
       <c r="Y4" s="14"/>
-      <c r="AD4" s="45" t="s">
+      <c r="AD4" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="AE4" s="45"/>
-      <c r="AF4" s="45"/>
-      <c r="AG4" s="45"/>
-      <c r="AH4" s="45"/>
-      <c r="AI4" s="45"/>
+      <c r="AE4" s="48"/>
+      <c r="AF4" s="48"/>
+      <c r="AG4" s="48"/>
+      <c r="AH4" s="48"/>
+      <c r="AI4" s="48"/>
       <c r="AN4" s="2" t="s">
         <v>451</v>
       </c>
@@ -3578,12 +3584,12 @@
       <c r="AT6" s="29">
         <v>999</v>
       </c>
-      <c r="AU6" s="46" t="s">
+      <c r="AU6" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="AV6" s="46"/>
-      <c r="AW6" s="46"/>
-      <c r="AX6" s="46"/>
+      <c r="AV6" s="45"/>
+      <c r="AW6" s="45"/>
+      <c r="AX6" s="45"/>
       <c r="AY6" s="39" t="s">
         <v>484</v>
       </c>
@@ -3600,11 +3606,11 @@
         <v>19</v>
       </c>
       <c r="D7" s="5"/>
-      <c r="I7" s="51" t="s">
+      <c r="I7" s="47" t="s">
         <v>250</v>
       </c>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
       <c r="M7" s="2" t="s">
         <v>328</v>
       </c>
@@ -3680,11 +3686,11 @@
       <c r="G8" s="37">
         <v>36387</v>
       </c>
-      <c r="I8" s="49" t="s">
+      <c r="I8" s="51" t="s">
         <v>249</v>
       </c>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
       <c r="M8" s="2" t="s">
         <v>329</v>
       </c>
@@ -4305,13 +4311,13 @@
       </c>
       <c r="Q16" s="36"/>
       <c r="R16" s="11"/>
-      <c r="T16" s="45" t="s">
+      <c r="T16" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="U16" s="45"/>
-      <c r="V16" s="45"/>
-      <c r="W16" s="45"/>
-      <c r="X16" s="45"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="48"/>
+      <c r="W16" s="48"/>
+      <c r="X16" s="48"/>
       <c r="Y16" s="14"/>
       <c r="AA16" s="39"/>
       <c r="AD16" s="28" t="s">
@@ -4333,7 +4339,7 @@
       <c r="AQ16" s="39"/>
       <c r="AR16" s="39"/>
     </row>
-    <row r="17" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B17" s="2"/>
       <c r="C17" s="5" t="s">
         <v>24</v>
@@ -4383,7 +4389,7 @@
       <c r="AQ17" s="39"/>
       <c r="AR17" s="39"/>
     </row>
-    <row r="18" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B18" s="2" t="s">
         <v>274</v>
       </c>
@@ -4447,7 +4453,7 @@
       <c r="AQ18" s="39"/>
       <c r="AR18" s="39"/>
     </row>
-    <row r="19" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:44" ht="29" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
         <v>275</v>
       </c>
@@ -4514,7 +4520,7 @@
       <c r="AQ19" s="39"/>
       <c r="AR19" s="39"/>
     </row>
-    <row r="20" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B20" s="28" t="s">
         <v>276</v>
       </c>
@@ -4589,7 +4595,10 @@
       </c>
       <c r="AR20" s="39"/>
     </row>
-    <row r="21" spans="2:44" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:44" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>718</v>
+      </c>
       <c r="B21" s="28" t="s">
         <v>277</v>
       </c>
@@ -4660,7 +4669,7 @@
       </c>
       <c r="AR21" s="39"/>
     </row>
-    <row r="22" spans="2:44" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:44" ht="29" x14ac:dyDescent="0.35">
       <c r="B22" s="28" t="s">
         <v>278</v>
       </c>
@@ -4722,7 +4731,10 @@
       </c>
       <c r="AR22" s="39"/>
     </row>
-    <row r="23" spans="2:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>718</v>
+      </c>
       <c r="B23" s="28" t="s">
         <v>279</v>
       </c>
@@ -4788,7 +4800,10 @@
       <c r="AQ23" s="39"/>
       <c r="AR23" s="39"/>
     </row>
-    <row r="24" spans="2:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>718</v>
+      </c>
       <c r="B24" s="28" t="s">
         <v>280</v>
       </c>
@@ -4864,7 +4879,10 @@
       </c>
       <c r="AR24" s="39"/>
     </row>
-    <row r="25" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>718</v>
+      </c>
       <c r="B25" s="28" t="s">
         <v>281</v>
       </c>
@@ -4938,7 +4956,10 @@
       </c>
       <c r="AR25" s="39"/>
     </row>
-    <row r="26" spans="2:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>718</v>
+      </c>
       <c r="B26" s="28" t="s">
         <v>282</v>
       </c>
@@ -5006,7 +5027,7 @@
       </c>
       <c r="AR26" s="39"/>
     </row>
-    <row r="27" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="28" t="s">
         <v>283</v>
       </c>
@@ -5081,7 +5102,7 @@
       </c>
       <c r="AR27" s="39"/>
     </row>
-    <row r="28" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B28" s="28" t="s">
         <v>284</v>
       </c>
@@ -5157,7 +5178,10 @@
       </c>
       <c r="AR28" s="39"/>
     </row>
-    <row r="29" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>718</v>
+      </c>
       <c r="B29" s="28" t="s">
         <v>285</v>
       </c>
@@ -5233,7 +5257,7 @@
       </c>
       <c r="AR29" s="39"/>
     </row>
-    <row r="30" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B30" s="28" t="s">
         <v>286</v>
       </c>
@@ -5309,7 +5333,7 @@
       </c>
       <c r="AR30" s="39"/>
     </row>
-    <row r="31" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B31" s="2"/>
       <c r="C31" s="5" t="s">
         <v>56</v>
@@ -5372,7 +5396,10 @@
       </c>
       <c r="AR31" s="39"/>
     </row>
-    <row r="32" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>718</v>
+      </c>
       <c r="B32" s="2" t="s">
         <v>287</v>
       </c>
@@ -5431,7 +5458,10 @@
       </c>
       <c r="AR32" s="39"/>
     </row>
-    <row r="33" spans="2:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>718</v>
+      </c>
       <c r="B33" s="2" t="s">
         <v>288</v>
       </c>
@@ -5478,13 +5508,13 @@
       <c r="AD33" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="AE33" s="48" t="s">
+      <c r="AE33" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="AF33" s="48"/>
-      <c r="AG33" s="48"/>
-      <c r="AH33" s="48"/>
-      <c r="AI33" s="48"/>
+      <c r="AF33" s="50"/>
+      <c r="AG33" s="50"/>
+      <c r="AH33" s="50"/>
+      <c r="AI33" s="50"/>
       <c r="AJ33" s="39" t="s">
         <v>586</v>
       </c>
@@ -5492,7 +5522,10 @@
         <v>549</v>
       </c>
     </row>
-    <row r="34" spans="2:37" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>718</v>
+      </c>
       <c r="B34" s="28" t="s">
         <v>289</v>
       </c>
@@ -5529,7 +5562,7 @@
         <v>98892</v>
       </c>
     </row>
-    <row r="35" spans="2:37" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:37" ht="29" x14ac:dyDescent="0.35">
       <c r="B35" s="28" t="s">
         <v>290</v>
       </c>
@@ -5577,7 +5610,10 @@
         <v>99796</v>
       </c>
     </row>
-    <row r="36" spans="2:37" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>718</v>
+      </c>
       <c r="B36" s="28" t="s">
         <v>291</v>
       </c>
@@ -5609,7 +5645,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="37" spans="2:37" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.35">
       <c r="B37" s="28" t="s">
         <v>292</v>
       </c>
@@ -5642,7 +5678,10 @@
         <v>48471</v>
       </c>
     </row>
-    <row r="38" spans="2:37" ht="29" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:37" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>718</v>
+      </c>
       <c r="B38" s="28" t="s">
         <v>518</v>
       </c>
@@ -5679,7 +5718,7 @@
         <v>48471</v>
       </c>
     </row>
-    <row r="39" spans="2:37" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.35">
       <c r="B39" s="2"/>
       <c r="C39" s="5" t="s">
         <v>30</v>
@@ -5705,7 +5744,7 @@
         <v>48471</v>
       </c>
     </row>
-    <row r="40" spans="2:37" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:37" ht="29" x14ac:dyDescent="0.35">
       <c r="B40" s="2" t="s">
         <v>293</v>
       </c>
@@ -5737,7 +5776,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="41" spans="2:37" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.35">
       <c r="B41" s="2" t="s">
         <v>294</v>
       </c>
@@ -5770,7 +5809,7 @@
         <v>268940</v>
       </c>
     </row>
-    <row r="42" spans="2:37" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:37" ht="29" x14ac:dyDescent="0.35">
       <c r="B42" s="28" t="s">
         <v>295</v>
       </c>
@@ -5800,7 +5839,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="43" spans="2:37" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.35">
       <c r="B43" s="28" t="s">
         <v>296</v>
       </c>
@@ -5833,7 +5872,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="44" spans="2:37" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.35">
       <c r="B44" s="28" t="s">
         <v>297</v>
       </c>
@@ -5862,7 +5901,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="45" spans="2:37" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.35">
       <c r="B45" s="28" t="s">
         <v>298</v>
       </c>
@@ -5895,7 +5934,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="2:37" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.35">
       <c r="B46" s="28" t="s">
         <v>299</v>
       </c>
@@ -5928,7 +5967,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="47" spans="2:37" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.35">
       <c r="B47" s="28" t="s">
         <v>300</v>
       </c>
@@ -5963,7 +6002,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="2:37" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.35">
       <c r="B48" s="28" t="s">
         <v>301</v>
       </c>
@@ -5998,7 +6037,7 @@
         <v>2836</v>
       </c>
     </row>
-    <row r="49" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B49" s="2"/>
       <c r="C49" s="5" t="s">
         <v>66</v>
@@ -6020,7 +6059,7 @@
         <v>98889</v>
       </c>
     </row>
-    <row r="50" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B50" s="2" t="s">
         <v>302</v>
       </c>
@@ -6049,7 +6088,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="51" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B51" s="9" t="s">
         <v>303</v>
       </c>
@@ -6066,17 +6105,17 @@
         <v>536</v>
       </c>
       <c r="S51" s="16"/>
-      <c r="T51" s="45" t="s">
+      <c r="T51" s="48" t="s">
         <v>242</v>
       </c>
-      <c r="U51" s="45"/>
-      <c r="V51" s="45"/>
-      <c r="W51" s="45"/>
-      <c r="X51" s="45"/>
+      <c r="U51" s="48"/>
+      <c r="V51" s="48"/>
+      <c r="W51" s="48"/>
+      <c r="X51" s="48"/>
       <c r="Y51" s="14"/>
       <c r="AA51" s="39"/>
     </row>
-    <row r="52" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B52" s="28" t="s">
         <v>304</v>
       </c>
@@ -6106,7 +6145,7 @@
       </c>
       <c r="AC52" s="23"/>
     </row>
-    <row r="53" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B53" s="21" t="s">
         <v>305</v>
       </c>
@@ -6135,7 +6174,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="54" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B54" s="28" t="s">
         <v>306</v>
       </c>
@@ -6164,7 +6203,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="55" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B55" s="21" t="s">
         <v>307</v>
       </c>
@@ -6197,7 +6236,7 @@
       </c>
       <c r="AD55" s="14"/>
     </row>
-    <row r="56" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B56" s="28" t="s">
         <v>308</v>
       </c>
@@ -6229,7 +6268,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="57" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B57" s="21" t="s">
         <v>309</v>
       </c>
@@ -6261,7 +6300,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="58" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B58" s="28" t="s">
         <v>310</v>
       </c>
@@ -6293,7 +6332,7 @@
         <v>3205</v>
       </c>
     </row>
-    <row r="59" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B59" s="21" t="s">
         <v>311</v>
       </c>
@@ -6320,7 +6359,10 @@
       </c>
       <c r="AA59" s="39"/>
     </row>
-    <row r="60" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>719</v>
+      </c>
       <c r="B60" s="28" t="s">
         <v>312</v>
       </c>
@@ -6346,7 +6388,7 @@
       <c r="Y60" s="14"/>
       <c r="AA60" s="39"/>
     </row>
-    <row r="61" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B61" s="21" t="s">
         <v>313</v>
       </c>
@@ -6374,7 +6416,7 @@
       <c r="AA61" s="42"/>
       <c r="AC61" s="23"/>
     </row>
-    <row r="62" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B62" s="28" t="s">
         <v>314</v>
       </c>
@@ -6403,7 +6445,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="63" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B63" s="21" t="s">
         <v>315</v>
       </c>
@@ -6432,7 +6474,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="64" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B64" s="28" t="s">
         <v>316</v>
       </c>
@@ -6878,11 +6920,6 @@
     <sortCondition ref="C68"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="AU2:AX2"/>
-    <mergeCell ref="AU6:AX6"/>
-    <mergeCell ref="M1:AX1"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="T4:X4"/>
     <mergeCell ref="T16:X16"/>
     <mergeCell ref="T2:Y2"/>
     <mergeCell ref="B2:C2"/>
@@ -6890,6 +6927,11 @@
     <mergeCell ref="AD4:AI4"/>
     <mergeCell ref="AE33:AI33"/>
     <mergeCell ref="I8:K8"/>
+    <mergeCell ref="AU2:AX2"/>
+    <mergeCell ref="AU6:AX6"/>
+    <mergeCell ref="M1:AX1"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="T4:X4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AL17" r:id="rId1" display="https://www.orpha.net/consor/cgi-bin/Disease_Search.php?lng=FR&amp;data_id=11267&amp;Disease_Disease_Search_diseaseGroup=E53-8&amp;Disease_Disease_Search_diseaseType=ICD-10&amp;Maladie(s)/groupes%20de%20maladies=Deficit-en-biotinidase&amp;title=Déficit%20en%20biotinidase&amp;search=Disease_Search_Simple" xr:uid="{00000000-0004-0000-0100-000000000000}"/>

--- a/data/2019_25_11 Thésaurus version pour osiris 2019 PL - English Traduction.xlsx
+++ b/data/2019_25_11 Thésaurus version pour osiris 2019 PL - English Traduction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Debian\home\exalis\github\projet_aura_classification\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A3B891-F4DE-4AF4-9BC3-97244AA0A086}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15D5351-2649-4216-801C-1D66AFE258D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EBM" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="721">
   <si>
     <t>DCD</t>
   </si>
@@ -2239,7 +2239,10 @@
     <t>Généralisée</t>
   </si>
   <si>
-    <t>x</t>
+    <t>Focale</t>
+  </si>
+  <si>
+    <t>Type de crise</t>
   </si>
 </sst>
 </file>
@@ -2399,7 +2402,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2496,19 +2499,16 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -2519,6 +2519,12 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2812,29 +2818,29 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="61.453125" customWidth="1"/>
+    <col min="4" max="4" width="61.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="3:6" x14ac:dyDescent="0.25">
       <c r="F1" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C2" s="44" t="s">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C2" s="45" t="s">
         <v>260</v>
       </c>
-      <c r="D2" s="44"/>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C7" s="44" t="s">
+      <c r="D2" s="45"/>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="44"/>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="D7" s="45"/>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>0</v>
       </c>
@@ -2842,7 +2848,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>1</v>
       </c>
@@ -2850,7 +2856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>99</v>
       </c>
@@ -2858,13 +2864,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C12" s="44" t="s">
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="44"/>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="D12" s="45"/>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>0</v>
       </c>
@@ -2872,7 +2878,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>1</v>
       </c>
@@ -2880,7 +2886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>99</v>
       </c>
@@ -2888,13 +2894,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C17" s="44" t="s">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="44"/>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="D17" s="45"/>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>0</v>
       </c>
@@ -2902,7 +2908,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>1</v>
       </c>
@@ -2912,7 +2918,7 @@
       <c r="E19" s="34"/>
       <c r="F19" s="34"/>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>2</v>
       </c>
@@ -2923,7 +2929,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>99</v>
       </c>
@@ -2931,13 +2937,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C23" s="44" t="s">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="44"/>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="D23" s="45"/>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>1</v>
       </c>
@@ -2945,7 +2951,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>2</v>
       </c>
@@ -2953,13 +2959,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C27" s="44" t="s">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="D27" s="44"/>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="D27" s="45"/>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>0</v>
       </c>
@@ -2967,7 +2973,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C29">
         <v>1</v>
       </c>
@@ -2975,7 +2981,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C30">
         <v>99</v>
       </c>
@@ -2983,13 +2989,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C32" s="44" t="s">
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C32" s="45" t="s">
         <v>234</v>
       </c>
-      <c r="D32" s="44"/>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D32" s="45"/>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33">
         <v>0</v>
       </c>
@@ -2997,7 +3003,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C34">
         <v>1</v>
       </c>
@@ -3005,7 +3011,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C35">
         <v>99</v>
       </c>
@@ -3013,13 +3019,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C37" s="44" t="s">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C37" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="D37" s="44"/>
-    </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D37" s="45"/>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C38">
         <v>0</v>
       </c>
@@ -3027,7 +3033,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C39">
         <v>1</v>
       </c>
@@ -3035,7 +3041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C40">
         <v>99</v>
       </c>
@@ -3043,13 +3049,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C42" s="44" t="s">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C42" s="45" t="s">
         <v>236</v>
       </c>
-      <c r="D42" s="44"/>
-    </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D42" s="45"/>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C43">
         <v>0</v>
       </c>
@@ -3057,7 +3063,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C44">
         <v>1</v>
       </c>
@@ -3065,7 +3071,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C45">
         <v>99</v>
       </c>
@@ -3073,13 +3079,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C47" s="44" t="s">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C47" s="45" t="s">
         <v>239</v>
       </c>
-      <c r="D47" s="44"/>
-    </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D47" s="45"/>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C48">
         <v>1</v>
       </c>
@@ -3087,7 +3093,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C49">
         <v>2</v>
       </c>
@@ -3095,7 +3101,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C50">
         <v>3</v>
       </c>
@@ -3103,7 +3109,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C51">
         <v>99</v>
       </c>
@@ -3111,16 +3117,16 @@
         <v>248</v>
       </c>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C53" s="44" t="s">
+    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C53" s="45" t="s">
         <v>240</v>
       </c>
-      <c r="D53" s="44"/>
+      <c r="D53" s="45"/>
       <c r="E53" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C54">
         <v>1</v>
       </c>
@@ -3128,7 +3134,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C55">
         <v>2</v>
       </c>
@@ -3136,7 +3142,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C56">
         <v>3</v>
       </c>
@@ -3144,7 +3150,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C57">
         <v>4</v>
       </c>
@@ -3152,7 +3158,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C58">
         <v>5</v>
       </c>
@@ -3160,7 +3166,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C59">
         <v>6</v>
       </c>
@@ -3168,7 +3174,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C60">
         <v>99</v>
       </c>
@@ -3181,17 +3187,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C53:D53"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C53:D53"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
@@ -3205,73 +3211,77 @@
   </sheetPr>
   <dimension ref="A1:BA85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.7265625" customWidth="1"/>
-    <col min="4" max="4" width="38.08984375" customWidth="1"/>
-    <col min="9" max="9" width="13.453125" customWidth="1"/>
-    <col min="12" max="12" width="14.7265625" customWidth="1"/>
-    <col min="14" max="14" width="85.7265625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="88.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" customWidth="1"/>
+    <col min="14" max="14" width="85.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="88.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:53" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B1" s="27"/>
       <c r="C1" s="27" t="s">
         <v>264</v>
       </c>
       <c r="D1" s="27"/>
-      <c r="M1" s="46" t="s">
+      <c r="M1" s="51" t="s">
         <v>251</v>
       </c>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="46"/>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="46"/>
-      <c r="AL1" s="46"/>
-      <c r="AM1" s="46"/>
-      <c r="AN1" s="46"/>
-      <c r="AO1" s="46"/>
-      <c r="AP1" s="46"/>
-      <c r="AQ1" s="46"/>
-      <c r="AR1" s="46"/>
-      <c r="AS1" s="46"/>
-      <c r="AT1" s="46"/>
-      <c r="AU1" s="46"/>
-      <c r="AV1" s="46"/>
-      <c r="AW1" s="46"/>
-      <c r="AX1" s="46"/>
-    </row>
-    <row r="2" spans="2:53" x14ac:dyDescent="0.35">
-      <c r="B2" s="49" t="s">
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
+      <c r="AP1" s="51"/>
+      <c r="AQ1" s="51"/>
+      <c r="AR1" s="51"/>
+      <c r="AS1" s="51"/>
+      <c r="AT1" s="51"/>
+      <c r="AU1" s="51"/>
+      <c r="AV1" s="51"/>
+      <c r="AW1" s="51"/>
+      <c r="AX1" s="51"/>
+    </row>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A2" s="44" t="s">
+        <v>720</v>
+      </c>
+      <c r="B2" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="48"/>
       <c r="D2" s="43" t="s">
         <v>717</v>
       </c>
@@ -3305,14 +3315,14 @@
       <c r="S2" s="29" t="s">
         <v>350</v>
       </c>
-      <c r="T2" s="45" t="s">
+      <c r="T2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
       <c r="Z2" t="s">
         <v>484</v>
       </c>
@@ -3359,12 +3369,12 @@
       <c r="AT2" s="29" t="s">
         <v>482</v>
       </c>
-      <c r="AU2" s="45" t="s">
+      <c r="AU2" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="AV2" s="45"/>
-      <c r="AW2" s="45"/>
-      <c r="AX2" s="45"/>
+      <c r="AV2" s="47"/>
+      <c r="AW2" s="47"/>
+      <c r="AX2" s="47"/>
       <c r="AY2" s="39" t="s">
         <v>484</v>
       </c>
@@ -3375,7 +3385,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="3" spans="2:53" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="5" t="s">
         <v>16</v>
@@ -3385,7 +3395,7 @@
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
     </row>
-    <row r="4" spans="2:53" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>261</v>
       </c>
@@ -3417,22 +3427,22 @@
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
-      <c r="T4" s="48" t="s">
+      <c r="T4" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
       <c r="Y4" s="14"/>
-      <c r="AD4" s="48" t="s">
+      <c r="AD4" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="AE4" s="48"/>
-      <c r="AF4" s="48"/>
-      <c r="AG4" s="48"/>
-      <c r="AH4" s="48"/>
-      <c r="AI4" s="48"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="46"/>
+      <c r="AG4" s="46"/>
+      <c r="AH4" s="46"/>
+      <c r="AI4" s="46"/>
       <c r="AN4" s="2" t="s">
         <v>451</v>
       </c>
@@ -3445,7 +3455,7 @@
       </c>
       <c r="AR4" s="39"/>
     </row>
-    <row r="5" spans="2:53" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>262</v>
       </c>
@@ -3516,7 +3526,7 @@
       </c>
       <c r="AR5" s="39"/>
     </row>
-    <row r="6" spans="2:53" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B6" s="28" t="s">
         <v>263</v>
       </c>
@@ -3584,12 +3594,12 @@
       <c r="AT6" s="29">
         <v>999</v>
       </c>
-      <c r="AU6" s="45" t="s">
+      <c r="AU6" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="AV6" s="45"/>
-      <c r="AW6" s="45"/>
-      <c r="AX6" s="45"/>
+      <c r="AV6" s="47"/>
+      <c r="AW6" s="47"/>
+      <c r="AX6" s="47"/>
       <c r="AY6" s="39" t="s">
         <v>484</v>
       </c>
@@ -3600,17 +3610,17 @@
         <v>610</v>
       </c>
     </row>
-    <row r="7" spans="2:53" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="5"/>
-      <c r="I7" s="47" t="s">
+      <c r="I7" s="52" t="s">
         <v>250</v>
       </c>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
       <c r="M7" s="2" t="s">
         <v>328</v>
       </c>
@@ -3669,7 +3679,7 @@
       </c>
       <c r="AR7" s="39"/>
     </row>
-    <row r="8" spans="2:53" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>265</v>
       </c>
@@ -3686,11 +3696,11 @@
       <c r="G8" s="37">
         <v>36387</v>
       </c>
-      <c r="I8" s="51" t="s">
+      <c r="I8" s="50" t="s">
         <v>249</v>
       </c>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
       <c r="M8" s="2" t="s">
         <v>329</v>
       </c>
@@ -3746,7 +3756,7 @@
       </c>
       <c r="AR8" s="39"/>
     </row>
-    <row r="9" spans="2:53" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:53" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>266</v>
       </c>
@@ -3826,7 +3836,7 @@
       </c>
       <c r="AR9" s="39"/>
     </row>
-    <row r="10" spans="2:53" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B10" s="28" t="s">
         <v>267</v>
       </c>
@@ -3899,7 +3909,7 @@
       </c>
       <c r="AR10" s="39"/>
     </row>
-    <row r="11" spans="2:53" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B11" s="28" t="s">
         <v>268</v>
       </c>
@@ -3977,7 +3987,7 @@
       </c>
       <c r="AR11" s="39"/>
     </row>
-    <row r="12" spans="2:53" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:53" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="28" t="s">
         <v>269</v>
       </c>
@@ -4055,7 +4065,7 @@
       </c>
       <c r="AR12" s="39"/>
     </row>
-    <row r="13" spans="2:53" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B13" s="28" t="s">
         <v>270</v>
       </c>
@@ -4135,7 +4145,7 @@
       </c>
       <c r="AR13" s="39"/>
     </row>
-    <row r="14" spans="2:53" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B14" s="28" t="s">
         <v>271</v>
       </c>
@@ -4208,7 +4218,7 @@
       <c r="AQ14" s="39"/>
       <c r="AR14" s="39"/>
     </row>
-    <row r="15" spans="2:53" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B15" s="28" t="s">
         <v>272</v>
       </c>
@@ -4278,7 +4288,7 @@
       <c r="AQ15" s="39"/>
       <c r="AR15" s="39"/>
     </row>
-    <row r="16" spans="2:53" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B16" s="28" t="s">
         <v>273</v>
       </c>
@@ -4311,13 +4321,13 @@
       </c>
       <c r="Q16" s="36"/>
       <c r="R16" s="11"/>
-      <c r="T16" s="48" t="s">
+      <c r="T16" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="U16" s="48"/>
-      <c r="V16" s="48"/>
-      <c r="W16" s="48"/>
-      <c r="X16" s="48"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="46"/>
+      <c r="X16" s="46"/>
       <c r="Y16" s="14"/>
       <c r="AA16" s="39"/>
       <c r="AD16" s="28" t="s">
@@ -4339,7 +4349,7 @@
       <c r="AQ16" s="39"/>
       <c r="AR16" s="39"/>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="5" t="s">
         <v>24</v>
@@ -4389,7 +4399,7 @@
       <c r="AQ17" s="39"/>
       <c r="AR17" s="39"/>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>274</v>
       </c>
@@ -4453,7 +4463,7 @@
       <c r="AQ18" s="39"/>
       <c r="AR18" s="39"/>
     </row>
-    <row r="19" spans="1:44" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:44" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>275</v>
       </c>
@@ -4520,7 +4530,7 @@
       <c r="AQ19" s="39"/>
       <c r="AR19" s="39"/>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B20" s="28" t="s">
         <v>276</v>
       </c>
@@ -4595,7 +4605,7 @@
       </c>
       <c r="AR20" s="39"/>
     </row>
-    <row r="21" spans="1:44" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:44" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>718</v>
       </c>
@@ -4669,7 +4679,7 @@
       </c>
       <c r="AR21" s="39"/>
     </row>
-    <row r="22" spans="1:44" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:44" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="28" t="s">
         <v>278</v>
       </c>
@@ -4731,7 +4741,7 @@
       </c>
       <c r="AR22" s="39"/>
     </row>
-    <row r="23" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>718</v>
       </c>
@@ -4800,7 +4810,7 @@
       <c r="AQ23" s="39"/>
       <c r="AR23" s="39"/>
     </row>
-    <row r="24" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>718</v>
       </c>
@@ -4879,7 +4889,7 @@
       </c>
       <c r="AR24" s="39"/>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>718</v>
       </c>
@@ -4956,7 +4966,7 @@
       </c>
       <c r="AR25" s="39"/>
     </row>
-    <row r="26" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>718</v>
       </c>
@@ -5027,7 +5037,7 @@
       </c>
       <c r="AR26" s="39"/>
     </row>
-    <row r="27" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="28" t="s">
         <v>283</v>
       </c>
@@ -5102,7 +5112,7 @@
       </c>
       <c r="AR27" s="39"/>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B28" s="28" t="s">
         <v>284</v>
       </c>
@@ -5178,7 +5188,7 @@
       </c>
       <c r="AR28" s="39"/>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>718</v>
       </c>
@@ -5257,7 +5267,7 @@
       </c>
       <c r="AR29" s="39"/>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B30" s="28" t="s">
         <v>286</v>
       </c>
@@ -5333,7 +5343,7 @@
       </c>
       <c r="AR30" s="39"/>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="5" t="s">
         <v>56</v>
@@ -5396,7 +5406,7 @@
       </c>
       <c r="AR31" s="39"/>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>718</v>
       </c>
@@ -5458,7 +5468,7 @@
       </c>
       <c r="AR32" s="39"/>
     </row>
-    <row r="33" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>718</v>
       </c>
@@ -5508,13 +5518,13 @@
       <c r="AD33" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="AE33" s="50" t="s">
+      <c r="AE33" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="AF33" s="50"/>
-      <c r="AG33" s="50"/>
-      <c r="AH33" s="50"/>
-      <c r="AI33" s="50"/>
+      <c r="AF33" s="49"/>
+      <c r="AG33" s="49"/>
+      <c r="AH33" s="49"/>
+      <c r="AI33" s="49"/>
       <c r="AJ33" s="39" t="s">
         <v>586</v>
       </c>
@@ -5522,7 +5532,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>718</v>
       </c>
@@ -5562,7 +5572,7 @@
         <v>98892</v>
       </c>
     </row>
-    <row r="35" spans="1:37" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" s="28" t="s">
         <v>290</v>
       </c>
@@ -5610,7 +5620,7 @@
         <v>99796</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>718</v>
       </c>
@@ -5645,7 +5655,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B37" s="28" t="s">
         <v>292</v>
       </c>
@@ -5678,7 +5688,7 @@
         <v>48471</v>
       </c>
     </row>
-    <row r="38" spans="1:37" ht="29" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>718</v>
       </c>
@@ -5718,7 +5728,7 @@
         <v>48471</v>
       </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="5" t="s">
         <v>30</v>
@@ -5744,7 +5754,7 @@
         <v>48471</v>
       </c>
     </row>
-    <row r="40" spans="1:37" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>293</v>
       </c>
@@ -5776,7 +5786,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>294</v>
       </c>
@@ -5809,7 +5819,7 @@
         <v>268940</v>
       </c>
     </row>
-    <row r="42" spans="1:37" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="B42" s="28" t="s">
         <v>295</v>
       </c>
@@ -5839,7 +5849,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B43" s="28" t="s">
         <v>296</v>
       </c>
@@ -5872,7 +5882,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B44" s="28" t="s">
         <v>297</v>
       </c>
@@ -5901,7 +5911,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B45" s="28" t="s">
         <v>298</v>
       </c>
@@ -5934,7 +5944,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B46" s="28" t="s">
         <v>299</v>
       </c>
@@ -5967,7 +5977,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B47" s="28" t="s">
         <v>300</v>
       </c>
@@ -6002,7 +6012,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B48" s="28" t="s">
         <v>301</v>
       </c>
@@ -6037,7 +6047,7 @@
         <v>2836</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
       <c r="C49" s="5" t="s">
         <v>66</v>
@@ -6059,7 +6069,10 @@
         <v>98889</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>719</v>
+      </c>
       <c r="B50" s="2" t="s">
         <v>302</v>
       </c>
@@ -6088,7 +6101,10 @@
         <v>530</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>719</v>
+      </c>
       <c r="B51" s="9" t="s">
         <v>303</v>
       </c>
@@ -6105,17 +6121,20 @@
         <v>536</v>
       </c>
       <c r="S51" s="16"/>
-      <c r="T51" s="48" t="s">
+      <c r="T51" s="46" t="s">
         <v>242</v>
       </c>
-      <c r="U51" s="48"/>
-      <c r="V51" s="48"/>
-      <c r="W51" s="48"/>
-      <c r="X51" s="48"/>
+      <c r="U51" s="46"/>
+      <c r="V51" s="46"/>
+      <c r="W51" s="46"/>
+      <c r="X51" s="46"/>
       <c r="Y51" s="14"/>
       <c r="AA51" s="39"/>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>719</v>
+      </c>
       <c r="B52" s="28" t="s">
         <v>304</v>
       </c>
@@ -6145,7 +6164,10 @@
       </c>
       <c r="AC52" s="23"/>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>719</v>
+      </c>
       <c r="B53" s="21" t="s">
         <v>305</v>
       </c>
@@ -6174,7 +6196,10 @@
         <v>435</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>719</v>
+      </c>
       <c r="B54" s="28" t="s">
         <v>306</v>
       </c>
@@ -6203,7 +6228,10 @@
         <v>464</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>719</v>
+      </c>
       <c r="B55" s="21" t="s">
         <v>307</v>
       </c>
@@ -6236,7 +6264,10 @@
       </c>
       <c r="AD55" s="14"/>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>719</v>
+      </c>
       <c r="B56" s="28" t="s">
         <v>308</v>
       </c>
@@ -6268,7 +6299,10 @@
         <v>637</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>719</v>
+      </c>
       <c r="B57" s="21" t="s">
         <v>309</v>
       </c>
@@ -6300,7 +6334,10 @@
         <v>805</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>719</v>
+      </c>
       <c r="B58" s="28" t="s">
         <v>310</v>
       </c>
@@ -6332,7 +6369,10 @@
         <v>3205</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>719</v>
+      </c>
       <c r="B59" s="21" t="s">
         <v>311</v>
       </c>
@@ -6359,7 +6399,7 @@
       </c>
       <c r="AA59" s="39"/>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>719</v>
       </c>
@@ -6388,7 +6428,10 @@
       <c r="Y60" s="14"/>
       <c r="AA60" s="39"/>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>719</v>
+      </c>
       <c r="B61" s="21" t="s">
         <v>313</v>
       </c>
@@ -6416,7 +6459,10 @@
       <c r="AA61" s="42"/>
       <c r="AC61" s="23"/>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>719</v>
+      </c>
       <c r="B62" s="28" t="s">
         <v>314</v>
       </c>
@@ -6445,7 +6491,10 @@
         <v>524</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>719</v>
+      </c>
       <c r="B63" s="21" t="s">
         <v>315</v>
       </c>
@@ -6474,7 +6523,10 @@
         <v>524</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>719</v>
+      </c>
       <c r="B64" s="28" t="s">
         <v>316</v>
       </c>
@@ -6504,7 +6556,10 @@
       </c>
       <c r="AD64" s="14"/>
     </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>719</v>
+      </c>
       <c r="B65" s="21" t="s">
         <v>317</v>
       </c>
@@ -6533,7 +6588,10 @@
         <v>525</v>
       </c>
     </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>719</v>
+      </c>
       <c r="B66" s="28" t="s">
         <v>318</v>
       </c>
@@ -6560,7 +6618,10 @@
       </c>
       <c r="AA66" s="39"/>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>719</v>
+      </c>
       <c r="B67" s="21" t="s">
         <v>319</v>
       </c>
@@ -6590,7 +6651,10 @@
         <v>163703</v>
       </c>
     </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>719</v>
+      </c>
       <c r="B68" s="28" t="s">
         <v>320</v>
       </c>
@@ -6620,7 +6684,10 @@
         <v>98813</v>
       </c>
     </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>719</v>
+      </c>
       <c r="B69" s="21" t="s">
         <v>321</v>
       </c>
@@ -6650,7 +6717,10 @@
         <v>391417</v>
       </c>
     </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>719</v>
+      </c>
       <c r="B70" s="2" t="s">
         <v>322</v>
       </c>
@@ -6675,7 +6745,10 @@
       </c>
       <c r="AA70" s="39"/>
     </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>719</v>
+      </c>
       <c r="B71" s="21" t="s">
         <v>323</v>
       </c>
@@ -6700,7 +6773,10 @@
       </c>
       <c r="AA71" s="39"/>
     </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>719</v>
+      </c>
       <c r="B72" s="2" t="s">
         <v>324</v>
       </c>
@@ -6728,7 +6804,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B73" s="9"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
@@ -6746,7 +6822,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B74" s="9"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -6764,7 +6840,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B75" s="9"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -6784,7 +6860,7 @@
         <v>477738</v>
       </c>
     </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B76" s="9"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -6802,7 +6878,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B77" s="9"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
@@ -6817,7 +6893,7 @@
       </c>
       <c r="AA77" s="39"/>
     </row>
-    <row r="78" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B78" s="9"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -6835,7 +6911,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B79" s="9"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
@@ -6853,7 +6929,7 @@
         <v>86908</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B80" s="9"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
@@ -6870,7 +6946,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="81" spans="2:29" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B81" s="9"/>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -6882,13 +6958,13 @@
       </c>
       <c r="AA81" s="39"/>
     </row>
-    <row r="82" spans="2:29" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B82" s="9"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="AA82" s="39"/>
     </row>
-    <row r="83" spans="2:29" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B83" s="2"/>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
@@ -6905,14 +6981,14 @@
       <c r="Y83" s="20"/>
       <c r="AA83" s="39"/>
     </row>
-    <row r="84" spans="2:29" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B84" s="2"/>
       <c r="Z84" s="20"/>
       <c r="AA84" s="30"/>
       <c r="AB84" s="33"/>
       <c r="AC84" s="24"/>
     </row>
-    <row r="85" spans="2:29" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B85" s="2"/>
     </row>
   </sheetData>
@@ -6920,6 +6996,11 @@
     <sortCondition ref="C68"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="AU2:AX2"/>
+    <mergeCell ref="AU6:AX6"/>
+    <mergeCell ref="M1:AX1"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="T4:X4"/>
     <mergeCell ref="T16:X16"/>
     <mergeCell ref="T2:Y2"/>
     <mergeCell ref="B2:C2"/>
@@ -6927,11 +7008,6 @@
     <mergeCell ref="AD4:AI4"/>
     <mergeCell ref="AE33:AI33"/>
     <mergeCell ref="I8:K8"/>
-    <mergeCell ref="AU2:AX2"/>
-    <mergeCell ref="AU6:AX6"/>
-    <mergeCell ref="M1:AX1"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="T4:X4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AL17" r:id="rId1" display="https://www.orpha.net/consor/cgi-bin/Disease_Search.php?lng=FR&amp;data_id=11267&amp;Disease_Disease_Search_diseaseGroup=E53-8&amp;Disease_Disease_Search_diseaseType=ICD-10&amp;Maladie(s)/groupes%20de%20maladies=Deficit-en-biotinidase&amp;title=Déficit%20en%20biotinidase&amp;search=Disease_Search_Simple" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
